--- a/yii2/web/runtime/export/Students.xlsx
+++ b/yii2/web/runtime/export/Students.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Faculty</t>
   </si>
   <si>
@@ -52,12 +46,6 @@
     <t>Elaine Tan</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Lee Kong Chian Faculty of Engineering and Science(LKC FES)</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>Raymond Tan</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
   <si>
     <t>raymond@1utar.edu.my</t>
@@ -482,7 +467,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -493,17 +478,15 @@
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="69.554443" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="69.554443" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,208 +511,166 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>120123</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2">
-        <v>120123</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
         <v>111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="F3">
+        <v>1304607</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>1304607</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+      <c r="F4">
+        <v>1406123</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1406123</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>1406354</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>1406354</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>150123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>150123</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>150456</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7">
-        <v>150456</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
+      <c r="H7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:H6"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
